--- a/Player_Data/T3xture_Player_Data.xlsx
+++ b/Player_Data/T3xture_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(4) 67%</t>
+          <t xml:space="preserve"> 67</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -536,10 +536,8 @@
       <c r="F2" t="n">
         <v>166.7</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.72</v>
       </c>
       <c r="H2" t="n">
         <v>0.91</v>
@@ -572,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(2) 33%</t>
+          <t xml:space="preserve"> 33</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +588,8 @@
       <c r="F3" t="n">
         <v>223.3</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.77</v>
       </c>
       <c r="H3" t="n">
         <v>1.3</v>

--- a/Player_Data/T3xture_Player_Data.xlsx
+++ b/Player_Data/T3xture_Player_Data.xlsx
@@ -518,23 +518,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67</t>
+          <t xml:space="preserve"> 71</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="D2" t="n">
-        <v>255</v>
+        <v>248.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="F2" t="n">
-        <v>166.7</v>
+        <v>161.2</v>
       </c>
       <c r="G2" t="n">
         <v>0.72</v>
@@ -543,34 +543,34 @@
         <v>0.91</v>
       </c>
       <c r="I2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.19</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.18</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="n">
+        <v>98</v>
+      </c>
+      <c r="M2" t="n">
         <v>80</v>
       </c>
-      <c r="M2" t="n">
-        <v>67</v>
-      </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
+        <v>20</v>
+      </c>
+      <c r="P2" t="n">
         <v>16</v>
-      </c>
-      <c r="P2" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33</t>
+          <t xml:space="preserve"> 29</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Player_Data/T3xture_Player_Data.xlsx
+++ b/Player_Data/T3xture_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 71</t>
+          <t xml:space="preserve"> 56</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -570,53 +570,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29</t>
+          <t xml:space="preserve"> 44</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="D3" t="n">
-        <v>348</v>
+        <v>309.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="F3" t="n">
-        <v>223.3</v>
+        <v>197.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="L3" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="M3" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
